--- a/bloodgroup.xlsx
+++ b/bloodgroup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsal Imran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsal Imran\go\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE50680-070E-4D3F-97BD-619A070ED917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027DFAE5-AE0D-43E4-B83E-C8268EAA844A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{874FB1A9-4948-4FFE-8E55-7B7359C93562}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" xr2:uid="{874FB1A9-4948-4FFE-8E55-7B7359C93562}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
